--- a/crm接口文档/联系人管理/获取联系人列表.xlsx
+++ b/crm接口文档/联系人管理/获取联系人列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>URL</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Content-Type</t>
   </si>
   <si>
-    <t>application/json;charset=utf-8</t>
-  </si>
-  <si>
     <t>输入参数来源</t>
   </si>
   <si>
@@ -69,12 +66,30 @@
     <t>缺省值</t>
   </si>
   <si>
+    <t>根对象</t>
+  </si>
+  <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>当前页码</t>
+  </si>
+  <si>
+    <t>可选</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>每页条数</t>
+  </si>
+  <si>
     <t> 输出参数来源</t>
   </si>
   <si>
-    <t>根对象</t>
-  </si>
-  <si>
     <t>result</t>
   </si>
   <si>
@@ -93,9 +108,6 @@
     <t>响应错误码</t>
   </si>
   <si>
-    <t>可选</t>
-  </si>
-  <si>
     <t>msg</t>
   </si>
   <si>
@@ -105,10 +117,43 @@
     <t>data</t>
   </si>
   <si>
+    <t>pageInfo</t>
+  </si>
+  <si>
+    <t>绑定信息的对象</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>总条数</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>总页数</t>
+  </si>
+  <si>
+    <t>hasPreviousPage</t>
+  </si>
+  <si>
+    <t>是否有上一页</t>
+  </si>
+  <si>
+    <t>hasNextPage</t>
+  </si>
+  <si>
+    <t>是否有下一页</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
     <t>List&lt;LinkmanVo&gt;</t>
   </si>
   <si>
-    <t>绑定信息的对象</t>
+    <t>具体列表数据</t>
   </si>
   <si>
     <t>LinkmanVo</t>
@@ -164,12 +209,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,16 +261,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11.3"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -235,15 +307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,21 +324,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,16 +393,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,68 +422,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -393,13 +444,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDFADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDFADE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,186 +636,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -629,24 +680,24 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,8 +714,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,60 +775,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -756,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,10 +795,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,125 +807,125 @@
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,55 +953,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1325,20 +1340,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:10">
+    <row r="1" ht="15" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,12 +1366,8 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:10">
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1365,12 +1378,8 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:10">
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1378,19 +1387,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4">
-        <v>8080</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" ht="28.5" customHeight="1" spans="1:10">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" ht="28.5" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1398,351 +1401,421 @@
         <v>8</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:6">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="27.75" customHeight="1" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="8" t="s">
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:6">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:10">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" ht="27.75" customHeight="1" spans="1:10">
-      <c r="A7" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:10">
-      <c r="A8" s="14" t="s">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" ht="19" customHeight="1" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:10">
-      <c r="A9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:10">
-      <c r="A10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" ht="19" customHeight="1" spans="1:10">
-      <c r="A11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:5">
+      <c r="A20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:5">
+      <c r="A21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" ht="15.75" spans="1:9">
-      <c r="A12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="1:9">
-      <c r="A13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" spans="1:9">
-      <c r="A14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" spans="1:9">
-      <c r="A15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="1:9">
-      <c r="A16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:9">
-      <c r="A17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" spans="1:9">
-      <c r="A18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="D21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="1:5">
+      <c r="A22" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24" t="s">
-        <v>15</v>
+      <c r="B22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="1:5">
+      <c r="A23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:5">
+      <c r="A24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="1:5">
+      <c r="A25" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="1:5">
+      <c r="A26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:H18"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>
-    <hyperlink ref="F9" r:id="rId2" display="响应错误码"/>
+    <hyperlink ref="D10" r:id="rId2" display="响应错误码"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/crm接口文档/联系人管理/获取联系人列表.xlsx
+++ b/crm接口文档/联系人管理/获取联系人列表.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>/qiuxx/crm/20010/400</t>
+    <t>/crm/20010/400</t>
   </si>
   <si>
     <t>接口描述</t>
@@ -168,6 +168,9 @@
     <t>联系人id</t>
   </si>
   <si>
+    <t>list不为空时，必须</t>
+  </si>
+  <si>
     <t>lkmName</t>
   </si>
   <si>
@@ -177,7 +180,13 @@
     <t>lkmSex</t>
   </si>
   <si>
-    <t>联系人性别 男，女</t>
+    <t>联系人性别</t>
+  </si>
+  <si>
+    <t>lkmSexStr</t>
+  </si>
+  <si>
+    <t>联系人性别字符串（用于显示）</t>
   </si>
   <si>
     <t>lkmMobile</t>
@@ -196,6 +205,12 @@
   </si>
   <si>
     <t>联系人手机号</t>
+  </si>
+  <si>
+    <t>cusId</t>
+  </si>
+  <si>
+    <t>客户id</t>
   </si>
   <si>
     <t>cusName</t>
@@ -286,6 +301,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -293,15 +369,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,14 +402,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,90 +431,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -456,19 +471,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,25 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,37 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,79 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,11 +693,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,6 +735,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -713,8 +767,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -734,47 +790,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,10 +798,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,133 +810,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1340,10 +1355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1351,7 +1366,7 @@
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1685,7 +1700,7 @@
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="15.75" spans="1:5">
+    <row r="20" ht="26.25" spans="1:5">
       <c r="A20" s="16" t="s">
         <v>46</v>
       </c>
@@ -1698,110 +1713,144 @@
       <c r="D20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="1:5">
+      <c r="E20" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" ht="26.25" spans="1:5">
       <c r="A21" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" ht="26.25" spans="1:5">
       <c r="A22" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" ht="26.25" spans="1:5">
       <c r="A23" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" ht="26.25" spans="1:5">
       <c r="A24" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="1:5">
+        <v>58</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" ht="26.25" spans="1:5">
       <c r="A25" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="1:5">
+        <v>60</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="26.25" spans="1:5">
       <c r="A26" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>14</v>
+        <v>62</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" ht="26.25" spans="1:5">
+      <c r="A27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" ht="26.25" spans="1:5">
+      <c r="A28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
